--- a/Entrega 03/Correción Entrega 2/Bases de datos/DATABASE FECHA DE CONSTITUCION POR REGION DE PARTIDOS VIGENTES.xlsx
+++ b/Entrega 03/Correción Entrega 2/Bases de datos/DATABASE FECHA DE CONSTITUCION POR REGION DE PARTIDOS VIGENTES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Homme\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Homme\Documents\GitHub\Trabajo-Benjamin-Adriana\Entrega 03\Correción Entrega 2\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D80D89-0F4D-4ED1-83C9-9F70E2160277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC6498D-BC5D-4190-A87B-8E20E2BCBCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1417220-26EF-42BB-B288-FFAE8DD87608}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="142">
   <si>
     <t xml:space="preserve">REGIONES </t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>08.05.24</t>
+  </si>
+  <si>
+    <t>29.12.23</t>
   </si>
 </sst>
 </file>
@@ -638,6 +641,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -654,18 +669,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87202C7B-A4B8-429B-93D6-1256AADB8353}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="K11" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,24 +1044,24 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="7"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -1115,12 +1118,12 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1171,12 +1174,12 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1227,12 +1230,12 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1283,12 +1286,12 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
@@ -1339,12 +1342,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
@@ -1395,12 +1398,12 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1451,12 +1454,12 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1507,12 +1510,12 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1563,12 +1566,12 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
         <v>63</v>
@@ -1615,12 +1618,12 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1667,12 +1670,12 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1709,12 +1712,12 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
@@ -1751,12 +1754,12 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1807,12 +1810,12 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1861,12 +1864,12 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1917,12 +1920,12 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1953,12 +1956,12 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1983,12 +1986,12 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="2" t="s">
         <v>55</v>
       </c>
@@ -2039,12 +2042,12 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2056,8 +2059,8 @@
         <v>88</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="2">
-        <v>45289</v>
+      <c r="L21" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>111</v>
@@ -2081,12 +2084,12 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
@@ -2123,12 +2126,12 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2155,12 +2158,12 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2187,12 +2190,12 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
@@ -2217,12 +2220,12 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2" t="s">
@@ -2247,12 +2250,12 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="2" t="s">
         <v>58</v>
       </c>
@@ -2279,17 +2282,6 @@
     <row r="28" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="E1:T1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
@@ -2306,6 +2298,17 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
